--- a/BDD/registros/productos.xlsx
+++ b/BDD/registros/productos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9732"/>
+    <workbookView windowWidth="23040" windowHeight="9287"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -867,10 +867,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1408,14 +1408,15 @@
   <sheetPr/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="47.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="131.444444444444" customWidth="1"/>
+    <col min="8" max="9" width="18.1111111111111"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.6" spans="1:9">
@@ -1448,7 +1449,9 @@
       </c>
     </row>
     <row r="2" ht="15" spans="1:9">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
       <c r="B2" s="2">
         <v>5</v>
       </c>
@@ -1465,18 +1468,26 @@
         <v>12</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="5">
+        <f ca="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I2" s="5">
+        <f ca="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="3" ht="15" spans="1:9">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2">
@@ -1486,18 +1497,26 @@
         <v>10</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="5">
+        <f ca="1" t="shared" ref="H3:H12" si="0">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I3" s="5">
+        <f ca="1" t="shared" ref="I3:I12" si="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="4" ht="15" spans="1:9">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2">
@@ -1507,15 +1526,23 @@
         <v>5</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="5">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I4" s="5">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="5" ht="15" spans="1:9">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1528,18 +1555,26 @@
         <v>5</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="5">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I5" s="5">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="6" ht="15" spans="1:9">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2">
@@ -1549,18 +1584,26 @@
         <v>5</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="5">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I6" s="5">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="7" ht="15" spans="1:9">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2">
@@ -1570,18 +1613,26 @@
         <v>6</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="5">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I7" s="5">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="8" ht="15" spans="1:9">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="2">
@@ -1591,18 +1642,26 @@
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="5">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I8" s="5">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="9" ht="15" spans="1:9">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="2">
@@ -1612,18 +1671,26 @@
         <v>0</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="5">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I9" s="5">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="10" ht="15" spans="1:9">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
       <c r="B10" s="2">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="2">
@@ -1633,18 +1700,26 @@
         <v>5</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="5">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I10" s="5">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="11" ht="15" spans="1:9">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
       <c r="B11" s="2">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="2">
@@ -1654,18 +1729,26 @@
         <v>0</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="H11" s="5">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I11" s="5">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="12" ht="15" spans="1:9">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="2">
@@ -1675,18 +1758,26 @@
         <v>8</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="5">
+        <f ca="1" t="shared" si="0"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I12" s="5">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="13" ht="15" spans="1:9">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="2">
@@ -1696,18 +1787,26 @@
         <v>5</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="H13" s="5">
+        <f ca="1" t="shared" ref="H13:H22" si="2">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I13" s="5">
+        <f ca="1" t="shared" ref="I13:I22" si="3">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="14" ht="15" spans="1:9">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="2">
@@ -1717,18 +1816,26 @@
         <v>0</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="5">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I14" s="5">
+        <f ca="1" t="shared" si="3"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="15" ht="15" spans="1:9">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="2">
@@ -1738,18 +1845,26 @@
         <v>0</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="H15" s="5">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I15" s="5">
+        <f ca="1" t="shared" si="3"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="16" ht="15" spans="1:9">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="2">
@@ -1759,18 +1874,26 @@
         <v>5</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="H16" s="5">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I16" s="5">
+        <f ca="1" t="shared" si="3"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="17" ht="15" spans="1:9">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="2">
@@ -1780,18 +1903,26 @@
         <v>0</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="H17" s="5">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I17" s="5">
+        <f ca="1" t="shared" si="3"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="18" ht="15" spans="1:9">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
       <c r="B18" s="2">
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="2">
@@ -1801,18 +1932,26 @@
         <v>5</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="H18" s="5">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I18" s="5">
+        <f ca="1" t="shared" si="3"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="19" ht="15" spans="1:9">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
       <c r="B19" s="2">
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="2">
@@ -1822,18 +1961,26 @@
         <v>3</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="5">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I19" s="5">
+        <f ca="1" t="shared" si="3"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="20" ht="15" spans="1:9">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="2">
@@ -1843,18 +1990,26 @@
         <v>0</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="H20" s="5">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I20" s="5">
+        <f ca="1" t="shared" si="3"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="21" ht="15" spans="1:9">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
       <c r="B21" s="2">
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="2">
@@ -1864,18 +2019,26 @@
         <v>0</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="5">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I21" s="5">
+        <f ca="1" t="shared" si="3"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="22" ht="15" spans="1:9">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
       <c r="B22" s="2">
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="2">
@@ -1885,11 +2048,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="5">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I22" s="5">
+        <f ca="1" t="shared" si="3"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="23" ht="15" spans="1:9">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
       <c r="B23" s="2">
         <v>5</v>
       </c>
@@ -1906,18 +2077,26 @@
         <v>5</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="5">
+        <f ca="1" t="shared" ref="H23:H31" si="4">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I23" s="5">
+        <f ca="1" t="shared" ref="I23:I31" si="5">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="24" ht="15" spans="1:9">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="2">
@@ -1927,18 +2106,26 @@
         <v>5</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="H24" s="5">
+        <f ca="1" t="shared" si="4"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I24" s="5">
+        <f ca="1" t="shared" si="5"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="25" ht="15" spans="1:9">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E25" s="2">
@@ -1948,18 +2135,26 @@
         <v>0</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="H25" s="5">
+        <f ca="1" t="shared" si="4"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I25" s="5">
+        <f ca="1" t="shared" si="5"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="26" ht="15" spans="1:9">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E26" s="2">
@@ -1969,18 +2164,26 @@
         <v>5</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="H26" s="5">
+        <f ca="1" t="shared" si="4"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I26" s="5">
+        <f ca="1" t="shared" si="5"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="27" ht="15" spans="1:9">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
       <c r="B27" s="2">
         <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="2">
@@ -1990,18 +2193,26 @@
         <v>0</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="H27" s="5">
+        <f ca="1" t="shared" si="4"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I27" s="5">
+        <f ca="1" t="shared" si="5"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="28" ht="15" spans="1:9">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
       <c r="B28" s="2">
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E28" s="2">
@@ -2011,18 +2222,26 @@
         <v>4</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="H28" s="5">
+        <f ca="1" t="shared" si="4"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I28" s="5">
+        <f ca="1" t="shared" si="5"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="29" ht="15" spans="1:9">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
       <c r="B29" s="2">
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E29" s="2">
@@ -2032,18 +2251,26 @@
         <v>0</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="H29" s="5">
+        <f ca="1" t="shared" si="4"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I29" s="5">
+        <f ca="1" t="shared" si="5"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="30" ht="15" spans="1:9">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
       <c r="B30" s="2">
         <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="2">
@@ -2053,18 +2280,26 @@
         <v>0</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="H30" s="5">
+        <f ca="1" t="shared" si="4"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I30" s="5">
+        <f ca="1" t="shared" si="5"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="31" ht="15" spans="1:9">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="2">
@@ -2074,8 +2309,14 @@
         <v>0</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="H31" s="5">
+        <f ca="1" t="shared" si="4"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="I31" s="5">
+        <f ca="1" t="shared" si="5"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
